--- a/spliced/falling/2023-03-25_17-58-29/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-29/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.162086248397827</v>
+        <v>-1.03581714630127</v>
       </c>
       <c r="B2" t="n">
-        <v>1.317891120910645</v>
+        <v>1.381664276123047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1167446374893195</v>
+        <v>-0.1787742376327515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.455766379833223</v>
+        <v>-1.100839495658875</v>
       </c>
       <c r="B3" t="n">
-        <v>1.126043200492858</v>
+        <v>1.406517148017883</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7863338142633457</v>
+        <v>-0.2175595723092557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.653480172157284</v>
+        <v>-1.232075214385986</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8844107389450073</v>
+        <v>1.368059515953064</v>
       </c>
       <c r="C4" t="n">
-        <v>1.495913922786714</v>
+        <v>-0.2088889628648757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.116286456584938</v>
+        <v>-1.198645412921905</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6627160906791623</v>
+        <v>1.359035015106201</v>
       </c>
       <c r="C5" t="n">
-        <v>2.260028153657919</v>
+        <v>-0.2234921492636203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.20666265487671</v>
+        <v>-1.162086248397827</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9849638938903851</v>
+        <v>1.317891120910645</v>
       </c>
       <c r="C6" t="n">
-        <v>3.828832626342773</v>
+        <v>0.1167446374893195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.492754817008973</v>
+        <v>-1.455766379833223</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.960709273815156</v>
+        <v>1.126043200492858</v>
       </c>
       <c r="C7" t="n">
-        <v>3.70500636100769</v>
+        <v>0.7863338142633457</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.38550305366516</v>
+        <v>-1.653480172157284</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4144415855407741</v>
+        <v>0.8844107389450073</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4261573851108604</v>
+        <v>1.495913922786714</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.568133831024171</v>
+        <v>-1.116286456584938</v>
       </c>
       <c r="B9" t="n">
-        <v>3.730020523071294</v>
+        <v>0.6627160906791623</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.8093817904591537</v>
+        <v>2.260028153657919</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.976609468460079</v>
+        <v>-3.20666265487671</v>
       </c>
       <c r="B10" t="n">
-        <v>6.545797109603887</v>
+        <v>-0.9849638938903851</v>
       </c>
       <c r="C10" t="n">
-        <v>2.459241539239894</v>
+        <v>3.828832626342773</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.197644114494325</v>
+        <v>-3.492754817008973</v>
       </c>
       <c r="B11" t="n">
-        <v>5.058232277631741</v>
+        <v>-1.960709273815156</v>
       </c>
       <c r="C11" t="n">
-        <v>2.450196892023069</v>
+        <v>3.70500636100769</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.255056142807007</v>
+        <v>-2.38550305366516</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5559926331043243</v>
+        <v>0.4144415855407741</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.602012172341346</v>
+        <v>-0.4261573851108604</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.5990372896194439</v>
+        <v>-2.568133831024171</v>
       </c>
       <c r="B13" t="n">
-        <v>1.264416024088864</v>
+        <v>3.730020523071294</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3774302378296863</v>
+        <v>-0.8093817904591537</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1129188537597673</v>
+        <v>-1.976609468460079</v>
       </c>
       <c r="B14" t="n">
-        <v>2.17881894111634</v>
+        <v>6.545797109603887</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6807380914687996</v>
+        <v>2.459241539239894</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.4983874559402485</v>
+        <v>-1.197644114494325</v>
       </c>
       <c r="B15" t="n">
-        <v>3.747065991163262</v>
+        <v>5.058232277631741</v>
       </c>
       <c r="C15" t="n">
-        <v>1.904177859425558</v>
+        <v>2.450196892023069</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.2239453792572</v>
+        <v>-1.255056142807007</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9145344123244095</v>
+        <v>0.5559926331043243</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.341536760330224</v>
+        <v>-1.602012172341346</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0572257041931156</v>
+        <v>-0.5990372896194439</v>
       </c>
       <c r="B17" t="n">
-        <v>1.018226306885483</v>
+        <v>1.264416024088864</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3575173318386149</v>
+        <v>-0.3774302378296863</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.08431243896484469</v>
+        <v>-0.1129188537597673</v>
       </c>
       <c r="B18" t="n">
-        <v>1.655711889266967</v>
+        <v>2.17881894111634</v>
       </c>
       <c r="C18" t="n">
-        <v>1.111008286476131</v>
+        <v>-0.6807380914687996</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.4652892351150522</v>
+        <v>-0.4983874559402485</v>
       </c>
       <c r="B19" t="n">
-        <v>1.397481560707091</v>
+        <v>3.747065991163262</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0504151582717907</v>
+        <v>1.904177859425558</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.4994766712188698</v>
+        <v>-0.2239453792572</v>
       </c>
       <c r="B20" t="n">
-        <v>1.122801780700685</v>
+        <v>0.9145344123244095</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2993719577789302</v>
+        <v>-1.341536760330224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.05791747570037777</v>
+        <v>0.0572257041931156</v>
       </c>
       <c r="B21" t="n">
-        <v>1.42728579044342</v>
+        <v>1.018226306885483</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2159498333930978</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.104710578918457</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.550390243530273</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.4408519268035888</v>
+        <v>0.3575173318386149</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-58-29/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-29/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.03581714630127</v>
+        <v>-0.9284301400184631</v>
       </c>
       <c r="B2" t="n">
-        <v>1.381664276123047</v>
+        <v>1.425136804580689</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1787742376327515</v>
+        <v>-0.2127189040184021</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.100839495658875</v>
+        <v>-0.9707106351852418</v>
       </c>
       <c r="B3" t="n">
-        <v>1.406517148017883</v>
+        <v>1.45836865901947</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2175595723092557</v>
+        <v>-0.1764526814222335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.232075214385986</v>
+        <v>-1.115207254886627</v>
       </c>
       <c r="B4" t="n">
-        <v>1.368059515953064</v>
+        <v>1.46594226360321</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2088889628648757</v>
+        <v>-0.1345747746527196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.198645412921905</v>
+        <v>-1.505423545837401</v>
       </c>
       <c r="B5" t="n">
-        <v>1.359035015106201</v>
+        <v>1.455123424530029</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2234921492636203</v>
+        <v>-0.2340321838855745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.162086248397827</v>
+        <v>-1.116380929946899</v>
       </c>
       <c r="B6" t="n">
-        <v>1.317891120910645</v>
+        <v>1.48697829246521</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1167446374893195</v>
+        <v>-0.4328413642942907</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.455766379833223</v>
+        <v>-1.109515905380249</v>
       </c>
       <c r="B7" t="n">
-        <v>1.126043200492858</v>
+        <v>1.432106614112854</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7863338142633457</v>
+        <v>-0.3912773653864859</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.653480172157284</v>
+        <v>-1.141456544399262</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8844107389450073</v>
+        <v>1.384602665901184</v>
       </c>
       <c r="C8" t="n">
-        <v>1.495913922786714</v>
+        <v>-0.2541450988501308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.116286456584938</v>
+        <v>-1.13429856300354</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6627160906791623</v>
+        <v>1.39785385131836</v>
       </c>
       <c r="C9" t="n">
-        <v>2.260028153657919</v>
+        <v>-0.2251825407147409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.20666265487671</v>
+        <v>-1.063723325729371</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9849638938903851</v>
+        <v>1.418689608573914</v>
       </c>
       <c r="C10" t="n">
-        <v>3.828832626342773</v>
+        <v>-0.2562501281499862</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.492754817008973</v>
+        <v>-1.018438935279846</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.960709273815156</v>
+        <v>1.406062006950379</v>
       </c>
       <c r="C11" t="n">
-        <v>3.70500636100769</v>
+        <v>-0.2269966453313826</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.38550305366516</v>
+        <v>-1.137969434261322</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4144415855407741</v>
+        <v>1.409385621547699</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4261573851108604</v>
+        <v>-0.1802991181612014</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.568133831024171</v>
+        <v>-1.03581714630127</v>
       </c>
       <c r="B13" t="n">
-        <v>3.730020523071294</v>
+        <v>1.381664276123047</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8093817904591537</v>
+        <v>-0.1787742376327515</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.976609468460079</v>
+        <v>-1.100839495658875</v>
       </c>
       <c r="B14" t="n">
-        <v>6.545797109603887</v>
+        <v>1.406517148017883</v>
       </c>
       <c r="C14" t="n">
-        <v>2.459241539239894</v>
+        <v>-0.2175595723092557</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.197644114494325</v>
+        <v>-1.232075214385986</v>
       </c>
       <c r="B15" t="n">
-        <v>5.058232277631741</v>
+        <v>1.368059515953064</v>
       </c>
       <c r="C15" t="n">
-        <v>2.450196892023069</v>
+        <v>-0.2088889628648757</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.255056142807007</v>
+        <v>-1.198645412921905</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5559926331043243</v>
+        <v>1.359035015106201</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.602012172341346</v>
+        <v>-0.2234921492636203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.5990372896194439</v>
+        <v>-1.162086248397827</v>
       </c>
       <c r="B17" t="n">
-        <v>1.264416024088864</v>
+        <v>1.317891120910645</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3774302378296863</v>
+        <v>0.1167446374893195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1129188537597673</v>
+        <v>-1.455766379833223</v>
       </c>
       <c r="B18" t="n">
-        <v>2.17881894111634</v>
+        <v>1.126043200492858</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.6807380914687996</v>
+        <v>0.7863338142633457</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.4983874559402485</v>
+        <v>-1.653480172157284</v>
       </c>
       <c r="B19" t="n">
-        <v>3.747065991163262</v>
+        <v>0.8844107389450073</v>
       </c>
       <c r="C19" t="n">
-        <v>1.904177859425558</v>
+        <v>1.495913922786714</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2239453792572</v>
+        <v>-1.116286456584938</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9145344123244095</v>
+        <v>0.6627160906791623</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.341536760330224</v>
+        <v>2.260028153657919</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0572257041931156</v>
+        <v>-3.20666265487671</v>
       </c>
       <c r="B21" t="n">
-        <v>1.018226306885483</v>
+        <v>-0.9849638938903851</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3575173318386149</v>
+        <v>3.828832626342773</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-3.492754817008973</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.960709273815156</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.70500636100769</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.38550305366516</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4144415855407741</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.4261573851108604</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-2.568133831024171</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.730020523071294</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.8093817904591537</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.976609468460079</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.545797109603887</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.459241539239894</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.197644114494325</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.058232277631741</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.450196892023069</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.255056142807007</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5559926331043243</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.602012172341346</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.5990372896194439</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.264416024088864</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.3774302378296863</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.1129188537597673</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.17881894111634</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.6807380914687996</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.4983874559402485</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.747065991163262</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.904177859425558</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.2239453792572</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9145344123244095</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.341536760330224</v>
       </c>
     </row>
   </sheetData>
